--- a/biology/Médecine/CSSS_du_Sud-Ouest—Verdun/CSSS_du_Sud-Ouest—Verdun.xlsx
+++ b/biology/Médecine/CSSS_du_Sud-Ouest—Verdun/CSSS_du_Sud-Ouest—Verdun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSSS_du_Sud-Ouest%E2%80%94Verdun</t>
+          <t>CSSS_du_Sud-Ouest—Verdun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre de santé et de services sociaux du Sud-Ouest—Verdun est un établissement public de santé et de service sociaux du gouvernement du Québec exploitant plusieurs institutions de santé publique dans le territoire des arrondissements Verdun et Sud-Ouest de Montréal.   
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSSS_du_Sud-Ouest%E2%80%94Verdun</t>
+          <t>CSSS_du_Sud-Ouest—Verdun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CLSC et clinique
-CLSC de Saint-Henri
+          <t>CLSC et clinique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>CLSC de Saint-Henri
 CLSC de Verdun
 CLSC de Ville-Émard-Côte-Saint-Paul
-Clinique universitaire de médecine de famille - GMF de Verdun (CUMG-GMF de Verdun)
-Hôpital
-Hôpital de Verdun
-Centres d'hébergement
-Centre d'hébergement Champlain
+Clinique universitaire de médecine de famille - GMF de Verdun (CUMG-GMF de Verdun)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CSSS_du_Sud-Ouest—Verdun</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CSSS_du_Sud-Ouest%E2%80%94Verdun</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Centres administrés par le CSSS du Sud-Ouest—Verdun</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hôpital</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hôpital de Verdun</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CSSS_du_Sud-Ouest—Verdun</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CSSS_du_Sud-Ouest%E2%80%94Verdun</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Centres administrés par le CSSS du Sud-Ouest—Verdun</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Centres d'hébergement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Centre d'hébergement Champlain
 Centre d'hébergement de Saint-Henri
 Centre d'hébergement des Seigneurs
 Centre d'hébergement du Manoir-de-Verdun
